--- a/famine_database.xlsx
+++ b/famine_database.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjp38/Dropbox (Personal)/Famine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjp38/Dropbox (Personal)/FamineWatch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A9B101-E8D1-624C-B93B-72B41F386161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C222A42E-E95D-4A4B-81CB-1843CCCD5A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="600" windowWidth="22100" windowHeight="13220" tabRatio="967" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22100" windowHeight="13220" tabRatio="967" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="23" r:id="rId1"/>
     <sheet name="FoodDisruptionList" sheetId="24" r:id="rId2"/>
-    <sheet name="Ljungqvist2024_TableA1" sheetId="26" r:id="rId3"/>
-    <sheet name="Ljungqvist2024_TableA2" sheetId="27" r:id="rId4"/>
-    <sheet name="References" sheetId="25" r:id="rId5"/>
+    <sheet name="References" sheetId="25" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_ENREF_10" localSheetId="1">FoodDisruptionList!#REF!</definedName>
@@ -48,7 +46,7 @@
     <definedName name="_ENREF_8" localSheetId="1">FoodDisruptionList!#REF!</definedName>
     <definedName name="_ENREF_9" localSheetId="1">FoodDisruptionList!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FoodDisruptionList!$A$2:$F$383</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">References!$A$2:$A$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">References!$A$2:$A$39</definedName>
   </definedNames>
   <calcPr calcId="130404"/>
   <extLst>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="811">
   <si>
     <t>Famine in France: "A severe famine."</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -4562,1209 +4560,10 @@
     <t>Ljungqvist, F. C., Seim, A., &amp; Collet, D. (2024). Famines in medieval and early modern Europe—Connecting climate and society. Wiley Interdisciplinary Reviews: Climate Change, 15(1), e859.</t>
   </si>
   <si>
-    <t>Compilation of Select Famines and Food Disruptions Around the World, Version 2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Please cite orginal source for this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ljungqvist, F. C., Seim, A., &amp; Collet, D. (2024). Famines in medieval and early modern Europe—Connecting climate and society. Wiley Interdisciplinary Reviews: Climate Change, 15(1), e859.</t>
-    </r>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>C. Europe</t>
-  </si>
-  <si>
-    <t>Low Countries</t>
-  </si>
-  <si>
-    <t>Great Britain</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Nordic</t>
-  </si>
-  <si>
-    <t>Russia/Ukraine</t>
-  </si>
-  <si>
-    <t>1255–62</t>
-  </si>
-  <si>
-    <t>1256–58</t>
-  </si>
-  <si>
-    <t>1258–59</t>
-  </si>
-  <si>
-    <t>1270–71</t>
-  </si>
-  <si>
-    <t>1275–77</t>
-  </si>
-  <si>
-    <t>1281–82</t>
-  </si>
-  <si>
-    <t>1279, 1282</t>
-  </si>
-  <si>
-    <t>1295–96</t>
-  </si>
-  <si>
-    <t>1294–96</t>
-  </si>
-  <si>
-    <t>1302–03</t>
-  </si>
-  <si>
-    <t>1301–1302</t>
-  </si>
-  <si>
-    <t>1308–10</t>
-  </si>
-  <si>
-    <t>1313–17</t>
-  </si>
-  <si>
-    <t>1315–17</t>
-  </si>
-  <si>
-    <t>1315–18</t>
-  </si>
-  <si>
-    <t>1314–16</t>
-  </si>
-  <si>
-    <t>1364–66</t>
-  </si>
-  <si>
-    <t>1732–36</t>
-  </si>
-  <si>
-    <t>January/February 2024</t>
-  </si>
-  <si>
-    <t>e859</t>
-  </si>
-  <si>
-    <t>Figures</t>
-  </si>
-  <si>
-    <t>Related</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Recommended</t>
-  </si>
-  <si>
-    <t>Climate and society in European history</t>
-  </si>
-  <si>
-    <t>WIREs Climate Change</t>
-  </si>
-  <si>
-    <t>Philip Slavin</t>
-  </si>
-  <si>
-    <t>Climate, history, and culture in the United States</t>
-  </si>
-  <si>
-    <t>Sam White</t>
-  </si>
-  <si>
-    <t>Fiona Williamson</t>
-  </si>
-  <si>
-    <t>Download PDF</t>
-  </si>
-  <si>
-    <t>© 2024 by John Wiley &amp; Sons, Inc., or related companies. All rights reserved</t>
-  </si>
-  <si>
-    <t>Additional links</t>
-  </si>
-  <si>
-    <t>ABOUT WILEY ONLINE LIBRARY</t>
-  </si>
-  <si>
-    <t>Privacy Policy</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>About Cookies</t>
-  </si>
-  <si>
-    <t>Manage Cookies</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Wiley Research DE&amp;I Statement and Publishing Policies</t>
-  </si>
-  <si>
-    <t>HELP &amp; SUPPORT</t>
-  </si>
-  <si>
-    <t>Contact Us</t>
-  </si>
-  <si>
-    <t>Training and Support</t>
-  </si>
-  <si>
-    <t>DMCA &amp; Reporting Piracy</t>
-  </si>
-  <si>
-    <t>OPPORTUNITIES</t>
-  </si>
-  <si>
-    <t>Subscription Agents</t>
-  </si>
-  <si>
-    <t>Advertisers &amp; Corporate Partners</t>
-  </si>
-  <si>
-    <t>CONNECT WITH WILEY</t>
-  </si>
-  <si>
-    <t>The Wiley Network</t>
-  </si>
-  <si>
-    <t>Wiley Press Room</t>
-  </si>
-  <si>
-    <t>1328–30</t>
-  </si>
-  <si>
-    <t>1333–36</t>
-  </si>
-  <si>
-    <t>1330–31</t>
-  </si>
-  <si>
-    <t>1330–32</t>
-  </si>
-  <si>
-    <t>1339–40</t>
-  </si>
-  <si>
-    <t>1338–39</t>
-  </si>
-  <si>
-    <t>1346–47</t>
-  </si>
-  <si>
-    <t>1346–48</t>
-  </si>
-  <si>
-    <t>1349–51</t>
-  </si>
-  <si>
-    <t>1361–62</t>
-  </si>
-  <si>
-    <t>1374–75</t>
-  </si>
-  <si>
-    <t>1420–21</t>
-  </si>
-  <si>
-    <t>1420–23</t>
-  </si>
-  <si>
-    <t>1429–32</t>
-  </si>
-  <si>
-    <t>1437–39</t>
-  </si>
-  <si>
-    <t>1437–40</t>
-  </si>
-  <si>
-    <t>1437–38</t>
-  </si>
-  <si>
-    <t>1434–37</t>
-  </si>
-  <si>
-    <t>1436–38</t>
-  </si>
-  <si>
-    <t>1442–45</t>
-  </si>
-  <si>
-    <t>1472–74</t>
-  </si>
-  <si>
-    <t>1468, 1472</t>
-  </si>
-  <si>
-    <t>1475–77</t>
-  </si>
-  <si>
-    <t>1482–84</t>
-  </si>
-  <si>
-    <t>1481–83</t>
-  </si>
-  <si>
-    <t>1481–82</t>
-  </si>
-  <si>
-    <t>1491–92</t>
-  </si>
-  <si>
-    <t>1497–98</t>
-  </si>
-  <si>
-    <t>1502–05</t>
-  </si>
-  <si>
-    <t>1506–08</t>
-  </si>
-  <si>
-    <t>1518–20</t>
-  </si>
-  <si>
-    <t>1516–18</t>
-  </si>
-  <si>
-    <t>1515–16</t>
-  </si>
-  <si>
-    <t>1521–22</t>
-  </si>
-  <si>
-    <t>1520–23</t>
-  </si>
-  <si>
-    <t>1527–29</t>
-  </si>
-  <si>
-    <t>1528–30</t>
-  </si>
-  <si>
-    <t>1527–32</t>
-  </si>
-  <si>
-    <t>1530–31</t>
-  </si>
-  <si>
-    <t>1533–34</t>
-  </si>
-  <si>
-    <t>1539–49</t>
-  </si>
-  <si>
-    <t>1544–45</t>
-  </si>
-  <si>
-    <t>1550–52</t>
-  </si>
-  <si>
-    <t>1558–60</t>
-  </si>
-  <si>
-    <t>1556–57</t>
-  </si>
-  <si>
-    <t>1557–59</t>
-  </si>
-  <si>
-    <t>1560–61</t>
-  </si>
-  <si>
-    <t>1565–66</t>
-  </si>
-  <si>
-    <t>1569–72</t>
-  </si>
-  <si>
-    <t>1573–74</t>
-  </si>
-  <si>
-    <t>1569–74</t>
-  </si>
-  <si>
-    <t>1572–73</t>
-  </si>
-  <si>
-    <t>1571–72</t>
-  </si>
-  <si>
-    <t>1568–72</t>
-  </si>
-  <si>
-    <t>1586–87</t>
-  </si>
-  <si>
-    <t>1585–87</t>
-  </si>
-  <si>
-    <t>1586–89</t>
-  </si>
-  <si>
-    <t>1590–93</t>
-  </si>
-  <si>
-    <t>1591–95</t>
-  </si>
-  <si>
-    <t>1593–98</t>
-  </si>
-  <si>
-    <t>1594–98</t>
-  </si>
-  <si>
-    <t>1595–97</t>
-  </si>
-  <si>
-    <t>1597–99</t>
-  </si>
-  <si>
-    <t>1590–97</t>
-  </si>
-  <si>
-    <t>1600–01</t>
-  </si>
-  <si>
-    <t>1599–1600</t>
-  </si>
-  <si>
-    <t>1600–03</t>
-  </si>
-  <si>
-    <t>1601–03</t>
-  </si>
-  <si>
-    <t>1601–05</t>
-  </si>
-  <si>
-    <t>1607–08</t>
-  </si>
-  <si>
-    <t>1605–07</t>
-  </si>
-  <si>
-    <t>1615–16</t>
-  </si>
-  <si>
-    <t>1618–22</t>
-  </si>
-  <si>
-    <t>1620–23</t>
-  </si>
-  <si>
-    <t>1623–25</t>
-  </si>
-  <si>
-    <t>1621–24</t>
-  </si>
-  <si>
-    <t>1628–29</t>
-  </si>
-  <si>
-    <t>1630–31</t>
-  </si>
-  <si>
-    <t>1631–32</t>
-  </si>
-  <si>
-    <t>1625–30</t>
-  </si>
-  <si>
-    <t>1625–26</t>
-  </si>
-  <si>
-    <t>1629–31</t>
-  </si>
-  <si>
-    <t>1628–30</t>
-  </si>
-  <si>
-    <t>1635–36</t>
-  </si>
-  <si>
-    <t>1633–34</t>
-  </si>
-  <si>
-    <t>1641–43</t>
-  </si>
-  <si>
-    <t>1648–49</t>
-  </si>
-  <si>
-    <t>1647–52</t>
-  </si>
-  <si>
-    <t>1648–52</t>
-  </si>
-  <si>
-    <t>1651–52</t>
-  </si>
-  <si>
-    <t>1648–51</t>
-  </si>
-  <si>
-    <t>1647–49</t>
-  </si>
-  <si>
-    <t>1641–52</t>
-  </si>
-  <si>
-    <t>1650–52</t>
-  </si>
-  <si>
-    <t>1659–62</t>
-  </si>
-  <si>
-    <t>1661–62</t>
-  </si>
-  <si>
-    <t>1674–76</t>
-  </si>
-  <si>
-    <t>1674–77</t>
-  </si>
-  <si>
-    <t>1674, 1677</t>
-  </si>
-  <si>
-    <t>1678–79</t>
-  </si>
-  <si>
-    <t>1678–85</t>
-  </si>
-  <si>
-    <t>1693–95</t>
-  </si>
-  <si>
-    <t>1694–99</t>
-  </si>
-  <si>
-    <t>1691–95</t>
-  </si>
-  <si>
-    <t>1692–94</t>
-  </si>
-  <si>
-    <t>1697–99</t>
-  </si>
-  <si>
-    <t>1695–1700</t>
-  </si>
-  <si>
-    <t>1695–97</t>
-  </si>
-  <si>
-    <t>1698–1701</t>
-  </si>
-  <si>
-    <t>1698–99</t>
-  </si>
-  <si>
-    <t>1708–09</t>
-  </si>
-  <si>
-    <t>1706–11</t>
-  </si>
-  <si>
-    <t>1709–10</t>
-  </si>
-  <si>
-    <t>1709–12</t>
-  </si>
-  <si>
-    <t>1708–10</t>
-  </si>
-  <si>
-    <t>1714–15</t>
-  </si>
-  <si>
-    <t>1716–19</t>
-  </si>
-  <si>
-    <t>1718–19</t>
-  </si>
-  <si>
-    <t>1719–21</t>
-  </si>
-  <si>
-    <t>1724–25</t>
-  </si>
-  <si>
-    <t>1721–24</t>
-  </si>
-  <si>
-    <t>1727–30</t>
-  </si>
-  <si>
-    <t>1725–27</t>
-  </si>
-  <si>
-    <t>1728–30</t>
-  </si>
-  <si>
-    <t>1743–45</t>
-  </si>
-  <si>
-    <t>1741–42</t>
-  </si>
-  <si>
-    <t>1740–41</t>
-  </si>
-  <si>
-    <t>1739–41</t>
-  </si>
-  <si>
-    <t>1739–43</t>
-  </si>
-  <si>
-    <t>1748–49</t>
-  </si>
-  <si>
-    <t>1747–50</t>
-  </si>
-  <si>
-    <t>1755–58</t>
-  </si>
-  <si>
-    <t>1756–57</t>
-  </si>
-  <si>
-    <t>1764–67</t>
-  </si>
-  <si>
-    <t>1762–65</t>
-  </si>
-  <si>
-    <t>1763–65</t>
-  </si>
-  <si>
-    <t>1770–72</t>
-  </si>
-  <si>
-    <t>1771–73</t>
-  </si>
-  <si>
-    <t>1780–82</t>
-  </si>
-  <si>
-    <t>1782–84</t>
-  </si>
-  <si>
-    <t>1786–87</t>
-  </si>
-  <si>
-    <t>1788–89</t>
-  </si>
-  <si>
-    <t>1787–90</t>
-  </si>
-  <si>
-    <t>1798–99</t>
-  </si>
-  <si>
-    <t>1794–95</t>
-  </si>
-  <si>
-    <t>TABLE A2. Mean climate conditions during the current and previous year of famine years which occurred in at least four of the regions listed in Table A1.</t>
-  </si>
-  <si>
-    <t>Famine year</t>
-  </si>
-  <si>
-    <t>Volcanic forcing</t>
-  </si>
-  <si>
-    <r>
-      <t>Winter </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Spring </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Summer </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Autumn </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-  </si>
-  <si>
-    <t>Drought C. Eur.</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>−0.5</t>
-  </si>
-  <si>
-    <t>−3</t>
-  </si>
-  <si>
-    <t>−0.15</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>−1</t>
-  </si>
-  <si>
-    <t>−0.12</t>
-  </si>
-  <si>
-    <t>−1.5</t>
-  </si>
-  <si>
-    <t>−0.03</t>
-  </si>
-  <si>
-    <t>−2.5</t>
-  </si>
-  <si>
-    <t>−0.30</t>
-  </si>
-  <si>
-    <t>−0.33</t>
-  </si>
-  <si>
-    <t>−0.2</t>
-  </si>
-  <si>
-    <t>−1.48</t>
-  </si>
-  <si>
-    <t>−0.29</t>
-  </si>
-  <si>
-    <t>2.41 (1554)</t>
-  </si>
-  <si>
-    <t>−0.18</t>
-  </si>
-  <si>
-    <t>−0.9</t>
-  </si>
-  <si>
-    <t>−1.2</t>
-  </si>
-  <si>
-    <t>−0.3</t>
-  </si>
-  <si>
-    <t>−0.80</t>
-  </si>
-  <si>
-    <t>2.51 (1567)</t>
-  </si>
-  <si>
-    <t>−0.58</t>
-  </si>
-  <si>
-    <t>−2.0</t>
-  </si>
-  <si>
-    <t>−0.32</t>
-  </si>
-  <si>
-    <t>8.51 (1585)</t>
-  </si>
-  <si>
-    <t>−0.8</t>
-  </si>
-  <si>
-    <t>−0.39</t>
-  </si>
-  <si>
-    <t>−0.7</t>
-  </si>
-  <si>
-    <t>−3.7</t>
-  </si>
-  <si>
-    <t>−1.9</t>
-  </si>
-  <si>
-    <t>−0.66</t>
-  </si>
-  <si>
-    <t>−1.1</t>
-  </si>
-  <si>
-    <t>−2.3</t>
-  </si>
-  <si>
-    <t>−0.72</t>
-  </si>
-  <si>
-    <t>−1.0</t>
-  </si>
-  <si>
-    <t>−0.97</t>
-  </si>
-  <si>
-    <t>−1.06</t>
-  </si>
-  <si>
-    <t>−1.4</t>
-  </si>
-  <si>
-    <t>8.87 (1595)</t>
-  </si>
-  <si>
-    <t>−2.8</t>
-  </si>
-  <si>
-    <t>−1.8</t>
-  </si>
-  <si>
-    <t>−1.02</t>
-  </si>
-  <si>
-    <t>−1.22</t>
-  </si>
-  <si>
-    <t>−0.1</t>
-  </si>
-  <si>
-    <t>−1.21</t>
-  </si>
-  <si>
-    <t>18.95 (1600)</t>
-  </si>
-  <si>
-    <t>−3.6</t>
-  </si>
-  <si>
-    <t>−1.53</t>
-  </si>
-  <si>
-    <t>−1.7</t>
-  </si>
-  <si>
-    <t>−0.38</t>
-  </si>
-  <si>
-    <t>2.42 (1646)</t>
-  </si>
-  <si>
-    <t>−0.26</t>
-  </si>
-  <si>
-    <t>−0.6</t>
-  </si>
-  <si>
-    <t>−0.09</t>
-  </si>
-  <si>
-    <t>2.82 (1693)</t>
-  </si>
-  <si>
-    <t>−0.34</t>
-  </si>
-  <si>
-    <t>−1.3</t>
-  </si>
-  <si>
-    <t>−0.13</t>
-  </si>
-  <si>
-    <t>15.74 (1695)</t>
-  </si>
-  <si>
-    <t>−4.0</t>
-  </si>
-  <si>
-    <t>−0.77</t>
-  </si>
-  <si>
-    <t>−0.94</t>
-  </si>
-  <si>
-    <t>−3.5</t>
-  </si>
-  <si>
-    <t>−0.98</t>
-  </si>
-  <si>
-    <t>−1.00</t>
-  </si>
-  <si>
-    <t>1.08 (1707)</t>
-  </si>
-  <si>
-    <t>−0.47</t>
-  </si>
-  <si>
-    <t>−3.1</t>
-  </si>
-  <si>
-    <t>−0.50</t>
-  </si>
-  <si>
-    <t>3.44 (1739)</t>
-  </si>
-  <si>
-    <t>−2.6</t>
-  </si>
-  <si>
-    <t>−0.59</t>
-  </si>
-  <si>
-    <t>−3.2</t>
-  </si>
-  <si>
-    <t>−1.12</t>
-  </si>
-  <si>
-    <r>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: At least two consecutive years, with famines recorded in four regions or more, are marked in bold. Volcanic eruptions as listed in Toohey and Sigl (2017) and seasonal temperatures for winter (December–February), spring (March–May) and autumn (September–November) from Pfister and Wanner (2021) and for summer from Ljungqvist et al. (2019) are shown together with summer drought for Central Europe from Büntgen et al. (2021).</t>
-    </r>
-  </si>
-  <si>
-    <t>Volume15, Issue1</t>
-  </si>
-  <si>
-    <t>Fredrik Charpentier Ljungqvist, Andrea Seim, Heli Huhtamaa</t>
-  </si>
-  <si>
-    <t>Climate and famines: a historical reassessment</t>
-  </si>
-  <si>
-    <t>The “cultural turn” of climate history: An emerging field for studies of China and East Asia</t>
-  </si>
-  <si>
-    <t>Three decades of EU climate policy: Racing toward climate neutrality?</t>
-  </si>
-  <si>
-    <t>Claire Dupont, Brendan Moore, Elin Lerum Boasson, Viviane Gravey, Andrew Jordan, Paula Kivimaa, Kati Kulovesi, Caroline Kuzemko, Sebastian Oberthür, Dmytro Panchuk, Jeffrey Rosamond, Diarmuid Torney, Jale Tosun, Ingmar von Homeyer</t>
-  </si>
-  <si>
-    <t> Back</t>
-  </si>
-  <si>
-    <t>Copyright © 1999-2024 John Wiley &amp; Sons, Inc or related companies. All rights reserved, including rights for text and data mining and training of artificial technologies or similar technologies.</t>
-  </si>
-  <si>
-    <r>
-      <t>TABLE A1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Updated list of famine years over the 1250–1800 period modified and expanded from Alfani &amp; Ó Gráda, 2017, 2018.</t>
-    </r>
-  </si>
-  <si>
     <t>Alfani, G., &amp; Ó Gr_x0013_ada, C. (2018). The timing and causes of famines in Europe.Nature Sustainability,1, 283–288.</t>
   </si>
   <si>
     <t>Alfani, G., &amp; Ó Gr_x0013_ada, C. (Eds.) (2017).Famine in European history. Cambridge University Press.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Chiefly the following works have been used to revise and complement the famine year list for the respective region. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Italy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Alfani (2013); Alfani et al. (2017); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Spain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Moreda (2017); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>France</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Parker (2013) and Curtis and Dijkman (2019); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Central Europe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Parker (2013), Lassen (2016), Brázdil et al. (2018) and Pfister and Wanner (2021); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Low Countries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Camenisch (2015a) and Curtis and Dijkman (2019); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Great Britain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Campbell (2010, 2016) and D'Arrigo et al. (2020); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ireland</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Engler and Werner (2015) and Campbell and Ludlow (2020); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nordic Countries</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Larsson (2006), Lilja (2008, 2012), Hybel (2002), Dybdahl (2014), Leijonhufvud and Retsö (2021) and Huhtamaa et al. (2022); </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Russia/Ukraine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF1C1D1E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Kahan (1968) and Huhtamaa et al. (2015).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Please cite orginal source for this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ljungqvist, F. C., Seim, A., &amp; Collet, D. (2024). Famines in medieval and early modern Europe—Connecting climate and society. Wiley Interdisciplinary Reviews: Climate Change, 15(1), e859.</t>
-    </r>
   </si>
   <si>
     <t>ovt. policy failure, "Great Leap Forward"</t>
@@ -5869,6 +4668,9 @@
     </r>
   </si>
   <si>
+    <t>Compilation of Select Famines and Food Disruptions Around the World, Beta Version</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5884,7 +4686,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: Compilation of Select Famines and Food Disruptions Around the World, version 2; </t>
+      <t xml:space="preserve">: Compilation of Select Famines and Food Disruptions Around the World, beta version; </t>
     </r>
     <r>
       <rPr>
@@ -5909,7 +4711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -6116,121 +4918,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF1C1D1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF1C1D1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF336699"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF00A185"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FF1C1D1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF1C1D1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="3"/>
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF1C1D1E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6263,24 +4958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -6317,7 +4994,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6328,9 +5005,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6419,51 +5095,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -6481,196 +5123,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="View Volume 15, Issue 1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE34E07-8D90-17D2-9C27-0405A9CFF0BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="25298400"/>
-          <a:ext cx="7556500" cy="9931400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Wiley Interdisciplinary Reviews Logo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7954894-3DBC-A894-C909-9944740A568E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="33578800"/>
-          <a:ext cx="2794000" cy="584200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Wiley Home Page">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tooltip="Wiley Home Page"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF51ECB-210B-0A0A-CABA-CAF6F1195BF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="39560500"/>
-          <a:ext cx="1409700" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6998,7 +5450,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7007,13 +5459,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>783</v>
+      <c r="A1" s="30" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="80" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>1110</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -7021,7 +5473,7 @@
     </row>
     <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>1109</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -7058,14 +5510,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -7098,18 +5550,18 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1104</v>
+        <v>803</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1105</v>
+        <v>804</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1106</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1100</v>
+        <v>799</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>192</v>
@@ -7118,18 +5570,18 @@
         <v>2017</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1101</v>
+        <v>800</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1102</v>
+        <v>801</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1103</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1096</v>
+        <v>795</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>192</v>
@@ -7138,18 +5590,18 @@
         <v>2016</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1097</v>
+        <v>796</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1098</v>
+        <v>797</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1099</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1092</v>
+        <v>791</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
@@ -7158,13 +5610,13 @@
         <v>2011</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1093</v>
+        <v>792</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1094</v>
+        <v>793</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1095</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -7201,7 +5653,7 @@
         <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1091</v>
+        <v>790</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>148</v>
@@ -7249,10 +5701,10 @@
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1087</v>
+        <v>786</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1088</v>
+        <v>787</v>
       </c>
       <c r="C11" s="1">
         <v>1991</v>
@@ -7261,7 +5713,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1089</v>
+        <v>788</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>190</v>
@@ -7269,7 +5721,7 @@
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1090</v>
+        <v>789</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>340</v>
@@ -7489,7 +5941,7 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1086</v>
+        <v>785</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>781</v>
@@ -7504,7 +5956,7 @@
         <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1107</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -14715,2648 +13167,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE81DEF5-EC07-4F46-81B8-DB0EAC4EAA7C}">
-  <dimension ref="A1:I190"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>787</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>789</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>790</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>791</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>792</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30">
-        <v>1263</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
-        <v>1286</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1291</v>
-      </c>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30">
-        <v>1311</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>845</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>846</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30" t="s">
-        <v>849</v>
-      </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>850</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>851</v>
-      </c>
-      <c r="C16" s="30">
-        <v>1347</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="G16" s="30">
-        <v>1346</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30">
-        <v>1360</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30">
-        <v>1410</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>855</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30">
-        <v>1435</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>858</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>859</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>860</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30">
-        <v>1447</v>
-      </c>
-      <c r="H25" s="30">
-        <v>1446</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>864</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30">
-        <v>1470</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30">
-        <v>1470</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
-        <v>1476</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>866</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
-        <v>867</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
-        <v>1493</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30" t="s">
-        <v>870</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30">
-        <v>1492</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>872</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30">
-        <v>1503</v>
-      </c>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>874</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30">
-        <v>1515</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>875</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30">
-        <v>1523</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>878</v>
-      </c>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>879</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>880</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>881</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>882</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>883</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>885</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30">
-        <v>1545</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="B41" s="30">
-        <v>1557</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>889</v>
-      </c>
-      <c r="G41" s="30">
-        <v>1556</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="I41" s="30">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30">
-        <v>1562</v>
-      </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
-        <v>891</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30" t="s">
-        <v>893</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>894</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>895</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30" t="s">
-        <v>896</v>
-      </c>
-      <c r="I44" s="30" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>898</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>899</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>900</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>901</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>902</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>903</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>904</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>905</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>906</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30" t="s">
-        <v>907</v>
-      </c>
-      <c r="I46" s="30">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
-        <v>908</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>909</v>
-      </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30">
-        <v>1602</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30">
-        <v>1602</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>910</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>911</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>913</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>914</v>
-      </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30" t="s">
-        <v>915</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
-        <v>916</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30" t="s">
-        <v>917</v>
-      </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
-        <v>918</v>
-      </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30" t="s">
-        <v>919</v>
-      </c>
-      <c r="I50" s="30">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
-        <v>920</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>921</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>922</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>923</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>924</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>925</v>
-      </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30" t="s">
-        <v>926</v>
-      </c>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30" t="s">
-        <v>927</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30" t="s">
-        <v>928</v>
-      </c>
-      <c r="I52" s="30">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30" t="s">
-        <v>929</v>
-      </c>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
-        <v>930</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>931</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>932</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>933</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>934</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>935</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>936</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>937</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
-        <v>938</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>938</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>939</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>939</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>939</v>
-      </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30">
-        <v>1676</v>
-      </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30" t="s">
-        <v>940</v>
-      </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30" t="s">
-        <v>941</v>
-      </c>
-      <c r="I56" s="30" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>944</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
-        <v>945</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>946</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>945</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>947</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>948</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>949</v>
-      </c>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
-        <v>950</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30" t="s">
-        <v>952</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>953</v>
-      </c>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
-        <v>954</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>955</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>956</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>957</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>958</v>
-      </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30" t="s">
-        <v>954</v>
-      </c>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
-        <v>1716</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30" t="s">
-        <v>959</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30" t="s">
-        <v>960</v>
-      </c>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30" t="s">
-        <v>961</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>962</v>
-      </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
-        <v>1724</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30" t="s">
-        <v>963</v>
-      </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30">
-        <v>1730</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30" t="s">
-        <v>965</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>966</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>967</v>
-      </c>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>968</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>969</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>970</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>971</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>970</v>
-      </c>
-      <c r="F66" s="30" t="s">
-        <v>969</v>
-      </c>
-      <c r="G66" s="30" t="s">
-        <v>970</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>972</v>
-      </c>
-      <c r="I66" s="30">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30" t="s">
-        <v>973</v>
-      </c>
-      <c r="C67" s="30">
-        <v>1747</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>973</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30" t="s">
-        <v>975</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30" t="s">
-        <v>976</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>976</v>
-      </c>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>977</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>978</v>
-      </c>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30" t="s">
-        <v>979</v>
-      </c>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30" t="s">
-        <v>980</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30" t="s">
-        <v>981</v>
-      </c>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30" t="s">
-        <v>982</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30" t="s">
-        <v>983</v>
-      </c>
-      <c r="H71" s="30">
-        <v>1785</v>
-      </c>
-      <c r="I71" s="30">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30" t="s">
-        <v>984</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>985</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>986</v>
-      </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30" t="s">
-        <v>984</v>
-      </c>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30" t="s">
-        <v>987</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30" t="s">
-        <v>988</v>
-      </c>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="46" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-    </row>
-    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="33"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="31" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="34" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="34" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="31" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="31" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="31" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="35" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="31" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="36" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="31" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="31" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="31" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="31" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="31" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="31" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="31" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="36" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="31" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="31" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="31" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A162" s="34"/>
-    </row>
-    <row r="163" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A163" s="34" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A164" s="37" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A166" s="35" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="31" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="31" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="31" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="34" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="31" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="31" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A174" s="35" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="31" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="31" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="31" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A179" s="35" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="31" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="31" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A183" s="35" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="31" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="31" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="31" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="34"/>
-    </row>
-    <row r="190" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A190" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A2:G2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A124" r:id="rId1" tooltip="View Volume 15, Issue 1" display="https://wires.onlinelibrary.wiley.com/toc/17577799/2024/15/1" xr:uid="{352BECA4-CB32-1643-AAED-641B590E05CF}"/>
-    <hyperlink ref="A130" r:id="rId2" location="pane-pcw-figures" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.859 - pane-pcw-figures" xr:uid="{E0505051-BF9F-B44E-8BA5-6B902FC3463E}"/>
-    <hyperlink ref="A131" r:id="rId3" location="pane-pcw-references" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.859 - pane-pcw-references" xr:uid="{0164FD7C-F664-A242-A6E8-7D90215C190F}"/>
-    <hyperlink ref="A132" r:id="rId4" location="pane-pcw-related" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.859 - pane-pcw-related" xr:uid="{6332B824-C62E-334E-84B6-7B75EF6740E9}"/>
-    <hyperlink ref="A133" r:id="rId5" location="pane-pcw-details" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.859 - pane-pcw-details" xr:uid="{0B92B118-B5D0-ED47-8277-3D7AC742A24E}"/>
-    <hyperlink ref="A136" r:id="rId6" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.691" xr:uid="{776E30D4-0F05-B04C-B9D4-C975B60B7B2C}"/>
-    <hyperlink ref="A139" r:id="rId7" display="https://wires.onlinelibrary.wiley.com/journal/17577799" xr:uid="{BFD6BA4C-DF21-874F-BEBC-CD92FF8D3121}"/>
-    <hyperlink ref="A141" r:id="rId8" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.395" xr:uid="{2F5D5CD5-AEA0-3A42-9258-3039B8E1242B}"/>
-    <hyperlink ref="A143" r:id="rId9" display="https://wires.onlinelibrary.wiley.com/authored-by/Slavin/Philip" xr:uid="{7EA9285A-F8DF-E74E-ABA6-ED0DC5436604}"/>
-    <hyperlink ref="A144" r:id="rId10" display="https://wires.onlinelibrary.wiley.com/journal/17577799" xr:uid="{83E9F5F9-B6F7-E744-A436-46D8A4FE328F}"/>
-    <hyperlink ref="A146" r:id="rId11" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.556" xr:uid="{EF3629AB-0120-A544-9E73-183896006F22}"/>
-    <hyperlink ref="A148" r:id="rId12" display="https://wires.onlinelibrary.wiley.com/authored-by/White/Sam" xr:uid="{C0ED7BFF-3B29-6946-BA74-377191A40C59}"/>
-    <hyperlink ref="A149" r:id="rId13" display="https://wires.onlinelibrary.wiley.com/journal/17577799" xr:uid="{026D3B1C-ED75-C04B-B90E-5302134433A0}"/>
-    <hyperlink ref="A151" r:id="rId14" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.635" xr:uid="{7228CA92-1FD3-8C4D-9010-651B54C3887C}"/>
-    <hyperlink ref="A153" r:id="rId15" display="https://wires.onlinelibrary.wiley.com/authored-by/Williamson/Fiona" xr:uid="{440415AD-DA0E-3342-A5C3-F074043B7989}"/>
-    <hyperlink ref="A154" r:id="rId16" display="https://wires.onlinelibrary.wiley.com/journal/17577799" xr:uid="{EDA68863-5782-4D4B-BFB7-7E4E514FC1B0}"/>
-    <hyperlink ref="A156" r:id="rId17" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.863" xr:uid="{DA22B716-444D-A346-A3F3-AC92859EFFFF}"/>
-    <hyperlink ref="A159" r:id="rId18" display="https://wires.onlinelibrary.wiley.com/journal/17577799" xr:uid="{4B30F603-37BF-9E42-BBC6-40FFED6862B4}"/>
-    <hyperlink ref="A160" r:id="rId19" display="https://wires.onlinelibrary.wiley.com/doi/pdf/10.1002/wcc.859" xr:uid="{AA1A7B7D-DF27-8540-958D-BA2F39703204}"/>
-    <hyperlink ref="A161" r:id="rId20" display="javascript:void(0)" xr:uid="{48BD9EAE-551E-504A-939B-9BB9A8CEA544}"/>
-    <hyperlink ref="A168" r:id="rId21" display="https://www.wiley.com/privacy" xr:uid="{BD53D970-6821-6645-98B1-B701F35D5444}"/>
-    <hyperlink ref="A169" r:id="rId22" display="https://onlinelibrary.wiley.com/terms-and-conditions" xr:uid="{815275D2-A230-694D-9525-90DB396EE06E}"/>
-    <hyperlink ref="A170" r:id="rId23" display="https://onlinelibrary.wiley.com/cookies" xr:uid="{72AC2256-9346-984C-9413-8DACE67F70CC}"/>
-    <hyperlink ref="A172" r:id="rId24" display="https://onlinelibrary.wiley.com/accessibility" xr:uid="{304307E4-BE1F-8E46-B164-09A0720C825F}"/>
-    <hyperlink ref="A173" r:id="rId25" display="https://onlinelibrary.wiley.com/publishing-policies" xr:uid="{48B1ECD6-F30D-7248-9A6C-D55E5338BA87}"/>
-    <hyperlink ref="A176" r:id="rId26" display="https://hub.wiley.com/community/support/onlinelibrary" xr:uid="{9F686030-1186-AF47-9336-F189520980CD}"/>
-    <hyperlink ref="A177" r:id="rId27" display="https://www.wiley.com/customer-success/wiley-online-library-training-hub" xr:uid="{B7E6B90E-D67A-4A45-AEEF-45AD38FFA21D}"/>
-    <hyperlink ref="A178" r:id="rId28" display="https://onlinelibrary.wiley.com/dmca-notification-policy" xr:uid="{210D5279-D806-8141-9166-299F990184AB}"/>
-    <hyperlink ref="A181" r:id="rId29" display="https://onlinelibrary.wiley.com/agents" xr:uid="{8773CFC2-2FC0-8E42-B040-024BC4AE697A}"/>
-    <hyperlink ref="A182" r:id="rId30" display="https://onlinelibrary.wiley.com/advertisers" xr:uid="{92F8F5D8-ED34-224F-B18D-6A113F98C0C4}"/>
-    <hyperlink ref="A185" r:id="rId31" display="https://www.wiley.com/network" xr:uid="{E6A72107-17F5-BD47-81FE-582FF127AECA}"/>
-    <hyperlink ref="A186" r:id="rId32" display="https://newsroom.wiley.com/" xr:uid="{6E050FAB-1975-B442-B765-FD7D6A38466C}"/>
-    <hyperlink ref="A188" r:id="rId33" display="https://www.wiley.com/" xr:uid="{6F2A11A2-BDE6-2945-83FE-5093BC938D3E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId34"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839B8C3C-FA98-C94C-A875-E2ABCB2C60FE}">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
-        <v>784</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>989</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>990</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>991</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>992</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>993</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>994</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>995</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="40">
-        <v>1315</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>999</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G5" s="30">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="40">
-        <v>1316</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>999</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="40">
-        <v>1317</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0.24</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41">
-        <v>1374</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="40">
-        <v>1437</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G9" s="30">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="40">
-        <v>1438</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="40">
-        <v>1521</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C11" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="40">
-        <v>1522</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="40">
-        <v>1556</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
-        <v>1557</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="40">
-        <v>1571</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G15" s="30">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="40">
-        <v>1572</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
-        <v>1586</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G17" s="30">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="40">
-        <v>1587</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G18" s="30">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="41">
-        <v>1591</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="40">
-        <v>1593</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G20" s="30">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="40">
-        <v>1594</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G21" s="30">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="40">
-        <v>1595</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
-        <v>1596</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F23" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="G23" s="30">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="40">
-        <v>1597</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C24" s="30">
-        <v>1</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G24" s="30">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="40">
-        <v>1601</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G25" s="30">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="40">
-        <v>1602</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G26" s="30">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="41">
-        <v>1623</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F27" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G27" s="30">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
-        <v>1648</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="D28" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F28" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="G28" s="30">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="40">
-        <v>1649</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="E29" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G29" s="30">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="40">
-        <v>1650</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E30" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G30" s="30">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="40">
-        <v>1651</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="E31" s="30">
-        <v>0.06</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G31" s="30">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
-        <v>1652</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E32" s="30">
-        <v>0.12</v>
-      </c>
-      <c r="F32" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="30">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="40">
-        <v>1661</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D33" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="E33" s="30">
-        <v>0.18</v>
-      </c>
-      <c r="F33" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="30">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="40">
-        <v>1662</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="C34" s="30">
-        <v>2.4</v>
-      </c>
-      <c r="D34" s="30">
-        <v>1.6</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F34" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="G34" s="30">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
-        <v>1693</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G35" s="30">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="40">
-        <v>1694</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G36" s="30">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="40">
-        <v>1695</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G37" s="30">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="40">
-        <v>1697</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G38" s="30">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
-        <v>1698</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G39" s="30">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
-        <v>1699</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G40" s="30">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="40">
-        <v>1708</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C41" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="D41" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G41" s="30">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
-        <v>1709</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D42" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G42" s="30">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
-        <v>1710</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D43" s="30">
-        <v>0.3</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F43" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G43" s="30">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
-        <v>1740</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F44" s="30" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G44" s="30">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
-        <v>1741</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G45" s="30">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-    </row>
-    <row r="48" spans="1:7" ht="23" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-    </row>
-    <row r="49" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="wcc859-tbl-0001" tooltip="Link to table" display="https://wires.onlinelibrary.wiley.com/doi/full/10.1002/wcc.859 - wcc859-tbl-0001" xr:uid="{C5D9C08C-D3E5-CB4E-B8C7-D7A27871F6F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17390,13 +13206,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>1082</v>
+      <c r="A5" s="31" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
-        <v>1083</v>
+      <c r="A6" s="31" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -17616,7 +13432,7 @@
     </row>
     <row r="51" spans="1:1" ht="221" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>1108</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
